--- a/forms/shipping_plan/breakdown_container_print_xls.xlsx
+++ b/forms/shipping_plan/breakdown_container_print_xls.xlsx
@@ -23,16 +23,13 @@
     <t>ATTN :</t>
   </si>
   <si>
-    <t>PT. KLINE TOTAL LOGISTICS INDONESIA</t>
-  </si>
-  <si>
     <t>BOOKING NO. :</t>
   </si>
   <si>
     <t>FROM :</t>
   </si>
   <si>
-    <t xml:space="preserve"> - FDK INDONESIA</t>
+    <t>WISNU - FDK INDONESIA</t>
   </si>
   <si>
     <t>INVOICE NO. :</t>
@@ -47,7 +44,7 @@
     <t>PPBE NO. :</t>
   </si>
   <si>
-    <t>117/H/20</t>
+    <t>130/W/20</t>
   </si>
   <si>
     <t>VESSEL :</t>
@@ -101,20 +98,24 @@
     <t>VGM (KGS)</t>
   </si>
   <si>
-    <t>FI/20-153</t>
-  </si>
-  <si>
-    <t>AMAZON BASICS US LR6 (4SX2)</t>
-  </si>
-  <si>
-    <t>A
-(20 FEET)</t>
-  </si>
-  <si>
-    <t>AMAZON BASICS US LR6 (4SX5)</t>
+    <t>FIENR20-015</t>
+  </si>
+  <si>
+    <t>EVEREADY GOLD US LR6 BULK (E7075601)</t>
+  </si>
+  <si>
+    <t>E7075601</t>
+  </si>
+  <si>
+    <t>TGHU 5244 291 / ZZC-SB 109 121
+(40 FEET)</t>
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>TGHU 5245 488 / ZZC-SB 111 849
+(40 FEET)</t>
   </si>
   <si>
     <t>TOTAL ALL</t>
@@ -561,19 +562,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="32.991943" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="43.560791" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="16.567383" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="12.568359" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="12.568359" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="36.419678" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="12.568359" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -600,14 +601,12 @@
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
+      <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -616,16 +615,16 @@
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -634,34 +633,34 @@
     </row>
     <row r="7" spans="1:13">
       <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7"/>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
     </row>
     <row r="8" spans="1:13">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -670,14 +669,14 @@
     </row>
     <row r="9" spans="1:13">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -686,189 +685,191 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12">
+        <v>52726</v>
+      </c>
+      <c r="D12" t="s">
         <v>29</v>
       </c>
-      <c r="C12">
-        <v>88188</v>
-      </c>
-      <c r="D12"/>
       <c r="E12" s="3">
-        <v>25792</v>
+        <v>753920</v>
       </c>
       <c r="F12" s="3">
-        <v>124</v>
+        <v>1216</v>
       </c>
       <c r="G12" s="3">
-        <v>654.2</v>
+        <v>18452.8</v>
       </c>
       <c r="H12" s="3">
-        <v>669.6</v>
+        <v>17341.3</v>
       </c>
       <c r="I12" s="3">
-        <v>1.0752</v>
+        <v>14.1792</v>
       </c>
       <c r="J12" s="3">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
         <v>30</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="M12" s="3">
-        <v>654.2</v>
+        <v>22152.8</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13">
-        <v>88188</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13" s="3">
-        <v>50000</v>
-      </c>
-      <c r="F13" s="3">
-        <v>240.38461538</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1308.4</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1301.4</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1.9704</v>
-      </c>
-      <c r="J13" s="3">
-        <v>2</v>
-      </c>
-      <c r="K13"/>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>1308.4</v>
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5">
+        <v>753920</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1216</v>
+      </c>
+      <c r="G13" s="5">
+        <v>18452.8</v>
+      </c>
+      <c r="H13" s="5">
+        <v>17341.3</v>
+      </c>
+      <c r="I13" s="5">
+        <v>14.179</v>
+      </c>
+      <c r="J13" s="5">
+        <v>19</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="5">
+        <v>3700</v>
+      </c>
+      <c r="M13" s="5">
+        <v>22152.8</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
       <c r="C14">
-        <v>88918</v>
-      </c>
-      <c r="D14"/>
+        <v>52726</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
       <c r="E14" s="3">
-        <v>221000</v>
+        <v>753920</v>
       </c>
       <c r="F14" s="3">
-        <v>425</v>
+        <v>1216</v>
       </c>
       <c r="G14" s="3">
-        <v>6188.6</v>
+        <v>18452.8</v>
       </c>
       <c r="H14" s="3">
-        <v>5610</v>
+        <v>17341.3</v>
       </c>
       <c r="I14" s="3">
-        <v>8.683199999999999</v>
+        <v>14.1792</v>
       </c>
       <c r="J14" s="3">
-        <v>12</v>
-      </c>
-      <c r="K14"/>
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="M14" s="3">
-        <v>6188.6</v>
+        <v>22152.8</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5">
-        <v>296792</v>
+        <v>753920</v>
       </c>
       <c r="F15" s="5">
-        <v>789.38461538</v>
+        <v>1216</v>
       </c>
       <c r="G15" s="5">
-        <v>8151.200000000001</v>
+        <v>18452.8</v>
       </c>
       <c r="H15" s="5">
-        <v>7581</v>
+        <v>17341.3</v>
       </c>
       <c r="I15" s="5">
-        <v>11.728</v>
+        <v>14.179</v>
       </c>
       <c r="J15" s="5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="5">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="M15" s="5">
-        <v>8151.200000000001</v>
+        <v>22152.8</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -879,29 +880,29 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7">
-        <v>296792</v>
+        <v>1507840</v>
       </c>
       <c r="F17" s="7">
-        <v>789.38461538</v>
+        <v>2432</v>
       </c>
       <c r="G17" s="7">
-        <v>8151.200000000001</v>
+        <v>36905.6</v>
       </c>
       <c r="H17" s="7">
-        <v>7581</v>
+        <v>34682.6</v>
       </c>
       <c r="I17" s="7">
-        <v>11.728</v>
+        <v>28.358</v>
       </c>
       <c r="J17" s="7">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="7">
-        <v>0</v>
+        <v>7400</v>
       </c>
       <c r="M17" s="7">
-        <v>8151.200000000001</v>
+        <v>44305.6</v>
       </c>
     </row>
   </sheetData>
@@ -923,6 +924,8 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:L9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="A17:B17"/>

--- a/forms/shipping_plan/breakdown_container_print_xls.xlsx
+++ b/forms/shipping_plan/breakdown_container_print_xls.xlsx
@@ -29,7 +29,7 @@
     <t>FROM :</t>
   </si>
   <si>
-    <t>WISNU - FDK INDONESIA</t>
+    <t>ADMIN - FDK INDONESIA</t>
   </si>
   <si>
     <t>INVOICE NO. :</t>
@@ -44,7 +44,7 @@
     <t>PPBE NO. :</t>
   </si>
   <si>
-    <t>130/W/20</t>
+    <t>166/H/20</t>
   </si>
   <si>
     <t>VESSEL :</t>
@@ -98,24 +98,25 @@
     <t>VGM (KGS)</t>
   </si>
   <si>
-    <t>FIENR20-015</t>
-  </si>
-  <si>
-    <t>EVEREADY GOLD US LR6 BULK (E7075601)</t>
-  </si>
-  <si>
-    <t>E7075601</t>
-  </si>
-  <si>
-    <t>TGHU 5244 291 / ZZC-SB 109 121
+    <t>FI/20-193</t>
+  </si>
+  <si>
+    <t>AMAZON BASICS US LR6 (4SX5)</t>
+  </si>
+  <si>
+    <t>A
 (40 FEET)</t>
   </si>
   <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>TGHU 5245 488 / ZZC-SB 111 849
+    <t>B
 (40 FEET)</t>
+  </si>
+  <si>
+    <t>B
+(20 FEET)</t>
   </si>
   <si>
     <t>TOTAL ALL</t>
@@ -554,16 +555,16 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="43.560791" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="32.991943" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="16.567383" bestFit="true" customWidth="true" style="0"/>
@@ -572,7 +573,7 @@
     <col min="8" max="8" width="12.568359" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="36.419678" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="12.568359" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -732,70 +733,68 @@
         <v>28</v>
       </c>
       <c r="C12">
-        <v>52726</v>
-      </c>
-      <c r="D12" t="s">
+        <v>88918</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12" s="3">
+        <v>561600</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1080</v>
+      </c>
+      <c r="G12" s="3">
+        <v>15714</v>
+      </c>
+      <c r="H12" s="3">
+        <v>14256</v>
+      </c>
+      <c r="I12" s="3">
+        <v>21.708</v>
+      </c>
+      <c r="J12" s="3">
+        <v>30</v>
+      </c>
+      <c r="K12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="3">
-        <v>753920</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1216</v>
-      </c>
-      <c r="G12" s="3">
-        <v>18452.8</v>
-      </c>
-      <c r="H12" s="3">
-        <v>17341.3</v>
-      </c>
-      <c r="I12" s="3">
-        <v>14.1792</v>
-      </c>
-      <c r="J12" s="3">
-        <v>19</v>
-      </c>
-      <c r="K12" t="s">
-        <v>30</v>
-      </c>
       <c r="L12" s="3">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>22152.8</v>
+        <v>15714</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5">
-        <v>753920</v>
+        <v>561600</v>
       </c>
       <c r="F13" s="5">
-        <v>1216</v>
+        <v>1080</v>
       </c>
       <c r="G13" s="5">
-        <v>18452.8</v>
+        <v>15714</v>
       </c>
       <c r="H13" s="5">
-        <v>17341.3</v>
+        <v>14256</v>
       </c>
       <c r="I13" s="5">
-        <v>14.179</v>
+        <v>21.708</v>
       </c>
       <c r="J13" s="5">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="5">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="M13" s="5">
-        <v>22152.8</v>
+        <v>15714</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -806,103 +805,173 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>52726</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
+        <v>88918</v>
+      </c>
+      <c r="D14"/>
       <c r="E14" s="3">
-        <v>753920</v>
+        <v>410280</v>
       </c>
       <c r="F14" s="3">
-        <v>1216</v>
+        <v>789</v>
       </c>
       <c r="G14" s="3">
-        <v>18452.8</v>
+        <v>11482.033333</v>
       </c>
       <c r="H14" s="3">
-        <v>17341.3</v>
+        <v>10414.8</v>
       </c>
       <c r="I14" s="3">
-        <v>14.1792</v>
+        <v>15.8739</v>
       </c>
       <c r="J14" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L14" s="3">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>22152.8</v>
+        <v>11482.033333</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5">
-        <v>753920</v>
+        <v>410280</v>
       </c>
       <c r="F15" s="5">
-        <v>1216</v>
+        <v>789</v>
       </c>
       <c r="G15" s="5">
-        <v>18452.8</v>
+        <v>11482.033333</v>
       </c>
       <c r="H15" s="5">
-        <v>17341.3</v>
+        <v>10414.8</v>
       </c>
       <c r="I15" s="5">
-        <v>14.179</v>
+        <v>15.874</v>
       </c>
       <c r="J15" s="5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="5">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="M15" s="5">
-        <v>22152.8</v>
+        <v>11482.033333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>88918</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" s="3">
+        <v>143000</v>
+      </c>
+      <c r="F16" s="3">
+        <v>275</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4010.277778</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3630</v>
+      </c>
+      <c r="I16" s="3">
+        <v>5.6076</v>
+      </c>
+      <c r="J16" s="3">
+        <v>8</v>
+      </c>
+      <c r="K16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>4010.277778</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17"/>
       <c r="B17"/>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5">
+        <v>143000</v>
+      </c>
+      <c r="F17" s="5">
+        <v>275</v>
+      </c>
+      <c r="G17" s="5">
+        <v>4010.277778</v>
+      </c>
+      <c r="H17" s="5">
+        <v>3630</v>
+      </c>
+      <c r="I17" s="5">
+        <v>5.608</v>
+      </c>
+      <c r="J17" s="5">
+        <v>8</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>4010.277778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7">
-        <v>1507840</v>
-      </c>
-      <c r="F17" s="7">
-        <v>2432</v>
-      </c>
-      <c r="G17" s="7">
-        <v>36905.6</v>
-      </c>
-      <c r="H17" s="7">
-        <v>34682.6</v>
-      </c>
-      <c r="I17" s="7">
-        <v>28.358</v>
-      </c>
-      <c r="J17" s="7">
-        <v>38</v>
-      </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="7">
-        <v>7400</v>
-      </c>
-      <c r="M17" s="7">
-        <v>44305.6</v>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7">
+        <v>1114880</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2144</v>
+      </c>
+      <c r="G19" s="7">
+        <v>31206.311111</v>
+      </c>
+      <c r="H19" s="7">
+        <v>28300.8</v>
+      </c>
+      <c r="I19" s="7">
+        <v>43.19</v>
+      </c>
+      <c r="J19" s="7">
+        <v>60</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>31206.311111</v>
       </c>
     </row>
   </sheetData>
@@ -930,6 +999,8 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forms/shipping_plan/breakdown_container_print_xls.xlsx
+++ b/forms/shipping_plan/breakdown_container_print_xls.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>BREAKDOWN CONTAINER</t>
   </si>
@@ -23,6 +23,9 @@
     <t>ATTN :</t>
   </si>
   <si>
+    <t>PT. KLINE TOTAL LOGISTICS INDONESIA</t>
+  </si>
+  <si>
     <t>BOOKING NO. :</t>
   </si>
   <si>
@@ -44,7 +47,7 @@
     <t>PPBE NO. :</t>
   </si>
   <si>
-    <t>166/H/20</t>
+    <t>182/H/20</t>
   </si>
   <si>
     <t>VESSEL :</t>
@@ -98,10 +101,7 @@
     <t>VGM (KGS)</t>
   </si>
   <si>
-    <t>FI/20-193</t>
-  </si>
-  <si>
-    <t>AMAZON BASICS US LR6 (4SX5)</t>
+    <t>AMAZON BASICS US LR6 (4SX12) PET</t>
   </si>
   <si>
     <t>A
@@ -115,7 +115,11 @@
 (40 FEET)</t>
   </si>
   <si>
-    <t>B
+    <t>C
+(40 FEET)</t>
+  </si>
+  <si>
+    <t>D
 (20 FEET)</t>
   </si>
   <si>
@@ -555,16 +559,16 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="32.991943" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="38.847656" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="16.567383" bestFit="true" customWidth="true" style="0"/>
@@ -602,12 +606,14 @@
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5"/>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="H5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -616,16 +622,16 @@
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -634,34 +640,34 @@
     </row>
     <row r="7" spans="1:13">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I7"/>
       <c r="J7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
     </row>
     <row r="8" spans="1:13">
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -670,14 +676,14 @@
     </row>
     <row r="9" spans="1:13">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -686,70 +692,70 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>27</v>
+      <c r="A12">
+        <v>120500002133</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
       <c r="C12">
-        <v>88918</v>
+        <v>88726</v>
       </c>
       <c r="D12"/>
       <c r="E12" s="3">
-        <v>561600</v>
+        <v>622080</v>
       </c>
       <c r="F12" s="3">
         <v>1080</v>
       </c>
       <c r="G12" s="3">
-        <v>15714</v>
+        <v>16470</v>
       </c>
       <c r="H12" s="3">
-        <v>14256</v>
+        <v>15228</v>
       </c>
       <c r="I12" s="3">
-        <v>21.708</v>
+        <v>20.628</v>
       </c>
       <c r="J12" s="3">
         <v>30</v>
@@ -761,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>15714</v>
+        <v>16470</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -772,19 +778,19 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5">
-        <v>561600</v>
+        <v>622080</v>
       </c>
       <c r="F13" s="5">
         <v>1080</v>
       </c>
       <c r="G13" s="5">
-        <v>15714</v>
+        <v>16470</v>
       </c>
       <c r="H13" s="5">
-        <v>14256</v>
+        <v>15228</v>
       </c>
       <c r="I13" s="5">
-        <v>21.708</v>
+        <v>20.628</v>
       </c>
       <c r="J13" s="5">
         <v>30</v>
@@ -794,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="M13" s="5">
-        <v>15714</v>
+        <v>16470</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>27</v>
+      <c r="A14">
+        <v>120500002133</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
       </c>
       <c r="C14">
-        <v>88918</v>
+        <v>88726</v>
       </c>
       <c r="D14"/>
       <c r="E14" s="3">
-        <v>410280</v>
+        <v>622080</v>
       </c>
       <c r="F14" s="3">
-        <v>789</v>
+        <v>1080</v>
       </c>
       <c r="G14" s="3">
-        <v>11482.033333</v>
+        <v>16470</v>
       </c>
       <c r="H14" s="3">
-        <v>10414.8</v>
+        <v>15228</v>
       </c>
       <c r="I14" s="3">
-        <v>15.8739</v>
+        <v>20.628</v>
       </c>
       <c r="J14" s="3">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K14" t="s">
         <v>31</v>
@@ -833,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>11482.033333</v>
+        <v>16470</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -844,59 +850,59 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5">
-        <v>410280</v>
+        <v>622080</v>
       </c>
       <c r="F15" s="5">
-        <v>789</v>
+        <v>1080</v>
       </c>
       <c r="G15" s="5">
-        <v>11482.033333</v>
+        <v>16470</v>
       </c>
       <c r="H15" s="5">
-        <v>10414.8</v>
+        <v>15228</v>
       </c>
       <c r="I15" s="5">
-        <v>15.874</v>
+        <v>20.628</v>
       </c>
       <c r="J15" s="5">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="5">
         <v>0</v>
       </c>
       <c r="M15" s="5">
-        <v>11482.033333</v>
+        <v>16470</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>27</v>
+      <c r="A16">
+        <v>120500002133</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
       </c>
       <c r="C16">
-        <v>88918</v>
+        <v>88726</v>
       </c>
       <c r="D16"/>
       <c r="E16" s="3">
-        <v>143000</v>
+        <v>622080</v>
       </c>
       <c r="F16" s="3">
-        <v>275</v>
+        <v>1080</v>
       </c>
       <c r="G16" s="3">
-        <v>4010.277778</v>
+        <v>16470</v>
       </c>
       <c r="H16" s="3">
-        <v>3630</v>
+        <v>15228</v>
       </c>
       <c r="I16" s="3">
-        <v>5.6076</v>
+        <v>20.628</v>
       </c>
       <c r="J16" s="3">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="K16" t="s">
         <v>32</v>
@@ -905,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="3">
-        <v>4010.277778</v>
+        <v>16470</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -916,62 +922,134 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="5">
-        <v>143000</v>
+        <v>622080</v>
       </c>
       <c r="F17" s="5">
-        <v>275</v>
+        <v>1080</v>
       </c>
       <c r="G17" s="5">
-        <v>4010.277778</v>
+        <v>16470</v>
       </c>
       <c r="H17" s="5">
-        <v>3630</v>
+        <v>15228</v>
       </c>
       <c r="I17" s="5">
-        <v>5.608</v>
+        <v>20.628</v>
       </c>
       <c r="J17" s="5">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="5">
         <v>0</v>
       </c>
       <c r="M17" s="5">
-        <v>4010.277778</v>
+        <v>16470</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>120500002133</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>88726</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" s="3">
+        <v>352512</v>
+      </c>
+      <c r="F18" s="3">
+        <v>612</v>
+      </c>
+      <c r="G18" s="3">
+        <v>9333</v>
+      </c>
+      <c r="H18" s="3">
+        <v>8629.2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>11.6892</v>
+      </c>
+      <c r="J18" s="3">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>9333</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="C19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7">
-        <v>1114880</v>
-      </c>
-      <c r="F19" s="7">
-        <v>2144</v>
-      </c>
-      <c r="G19" s="7">
-        <v>31206.311111</v>
-      </c>
-      <c r="H19" s="7">
-        <v>28300.8</v>
-      </c>
-      <c r="I19" s="7">
-        <v>43.19</v>
-      </c>
-      <c r="J19" s="7">
-        <v>60</v>
-      </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="7">
+      <c r="C19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5">
+        <v>352512</v>
+      </c>
+      <c r="F19" s="5">
+        <v>612</v>
+      </c>
+      <c r="G19" s="5">
+        <v>9333</v>
+      </c>
+      <c r="H19" s="5">
+        <v>8629.2</v>
+      </c>
+      <c r="I19" s="5">
+        <v>11.689</v>
+      </c>
+      <c r="J19" s="5">
+        <v>17</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5">
         <v>0</v>
       </c>
-      <c r="M19" s="7">
-        <v>31206.311111</v>
+      <c r="M19" s="5">
+        <v>9333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7">
+        <v>2218752</v>
+      </c>
+      <c r="F21" s="7">
+        <v>3852</v>
+      </c>
+      <c r="G21" s="7">
+        <v>58743</v>
+      </c>
+      <c r="H21" s="7">
+        <v>54313.2</v>
+      </c>
+      <c r="I21" s="7">
+        <v>73.573</v>
+      </c>
+      <c r="J21" s="7">
+        <v>107</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7">
+        <v>58743</v>
       </c>
     </row>
   </sheetData>
@@ -1001,6 +1079,8 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forms/shipping_plan/breakdown_container_print_xls.xlsx
+++ b/forms/shipping_plan/breakdown_container_print_xls.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>BREAKDOWN CONTAINER</t>
   </si>
@@ -29,6 +29,9 @@
     <t>BOOKING NO. :</t>
   </si>
   <si>
+    <t>TBA</t>
+  </si>
+  <si>
     <t>FROM :</t>
   </si>
   <si>
@@ -38,16 +41,19 @@
     <t>INVOICE NO. :</t>
   </si>
   <si>
+    <t>631/FILR/20</t>
+  </si>
+  <si>
     <t>RE :</t>
   </si>
   <si>
-    <t xml:space="preserve">CONTAINER BREAK DOWN DESTINED TO </t>
+    <t>CONTAINER BREAK DOWN DESTINED TO LOS ANGELES, USA</t>
   </si>
   <si>
     <t>PPBE NO. :</t>
   </si>
   <si>
-    <t>182/H/20</t>
+    <t>210/H/20</t>
   </si>
   <si>
     <t>VESSEL :</t>
@@ -59,9 +65,15 @@
     <t>DATE :</t>
   </si>
   <si>
+    <t>2020-11-18</t>
+  </si>
+  <si>
     <t>ETD :</t>
   </si>
   <si>
+    <t>2020-11-23</t>
+  </si>
+  <si>
     <t>FI PO NO.</t>
   </si>
   <si>
@@ -101,26 +113,20 @@
     <t>VGM (KGS)</t>
   </si>
   <si>
-    <t>AMAZON BASICS US LR6 (4SX12) PET</t>
+    <t>AMAZON BASICS US LR6 (4SX2)</t>
   </si>
   <si>
     <t>A
-(40 FEET)</t>
+(20 FEET)</t>
+  </si>
+  <si>
+    <t>AMAZON BASICS US LR03 (4SX5)</t>
+  </si>
+  <si>
+    <t>AMAZON BASICS US LR6 (4SX5)</t>
   </si>
   <si>
     <t>TOTAL</t>
-  </si>
-  <si>
-    <t>B
-(40 FEET)</t>
-  </si>
-  <si>
-    <t>C
-(40 FEET)</t>
-  </si>
-  <si>
-    <t>D
-(20 FEET)</t>
   </si>
   <si>
     <t>TOTAL ALL</t>
@@ -559,27 +565,27 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="38.847656" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="34.134521" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="16.567383" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="13.85376" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="12.568359" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="12.568359" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="12.568359" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="11.711426" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -616,58 +622,64 @@
         <v>3</v>
       </c>
       <c r="I5"/>
-      <c r="J5"/>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
       <c r="K5"/>
       <c r="L5"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6"/>
-      <c r="J6"/>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
       <c r="K6"/>
       <c r="L6"/>
     </row>
     <row r="7" spans="1:13">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I7"/>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
     </row>
     <row r="8" spans="1:13">
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8"/>
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -676,380 +688,242 @@
     </row>
     <row r="9" spans="1:13">
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9"/>
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I9"/>
-      <c r="J9"/>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
       <c r="K9"/>
       <c r="L9"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>120500002133</v>
+        <v>120500002245</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C12">
-        <v>88726</v>
+        <v>88188</v>
       </c>
       <c r="D12"/>
       <c r="E12" s="3">
-        <v>622080</v>
+        <v>25792</v>
       </c>
       <c r="F12" s="3">
-        <v>1080</v>
+        <v>124</v>
       </c>
       <c r="G12" s="3">
-        <v>16470</v>
+        <v>746.614286</v>
       </c>
       <c r="H12" s="3">
-        <v>15228</v>
+        <v>670.592</v>
       </c>
       <c r="I12" s="3">
-        <v>20.628</v>
+        <v>1.151828</v>
       </c>
       <c r="J12" s="3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>16470</v>
+        <v>746.614286</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5">
-        <v>622080</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1080</v>
-      </c>
-      <c r="G13" s="5">
-        <v>16470</v>
-      </c>
-      <c r="H13" s="5">
-        <v>15228</v>
-      </c>
-      <c r="I13" s="5">
-        <v>20.628</v>
-      </c>
-      <c r="J13" s="5">
-        <v>30</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="5">
+      <c r="A13">
+        <v>120500002245</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>88849</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13" s="3">
+        <v>160000</v>
+      </c>
+      <c r="F13" s="3">
+        <v>160</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2251.111111</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2048</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3.706666</v>
+      </c>
+      <c r="J13" s="3">
+        <v>4</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="5">
-        <v>16470</v>
+      <c r="M13" s="3">
+        <v>2251.111111</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>120500002133</v>
+        <v>120500002245</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C14">
-        <v>88726</v>
+        <v>88918</v>
       </c>
       <c r="D14"/>
       <c r="E14" s="3">
-        <v>622080</v>
+        <v>216320</v>
       </c>
       <c r="F14" s="3">
-        <v>1080</v>
+        <v>416</v>
       </c>
       <c r="G14" s="3">
-        <v>16470</v>
+        <v>6063.911111</v>
       </c>
       <c r="H14" s="3">
-        <v>15228</v>
+        <v>5494.528</v>
       </c>
       <c r="I14" s="3">
-        <v>20.628</v>
+        <v>8.4567</v>
       </c>
       <c r="J14" s="3">
-        <v>30</v>
-      </c>
-      <c r="K14" t="s">
-        <v>31</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="K14"/>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>16470</v>
+        <v>6063.911111</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5">
-        <v>622080</v>
+        <v>402112</v>
       </c>
       <c r="F15" s="5">
-        <v>1080</v>
+        <v>700</v>
       </c>
       <c r="G15" s="5">
-        <v>16470</v>
+        <v>9061.636508</v>
       </c>
       <c r="H15" s="5">
-        <v>15228</v>
+        <v>8213.12</v>
       </c>
       <c r="I15" s="5">
-        <v>20.628</v>
+        <v>13.316</v>
       </c>
       <c r="J15" s="5">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="5">
         <v>0</v>
       </c>
       <c r="M15" s="5">
-        <v>16470</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16">
-        <v>120500002133</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16">
-        <v>88726</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16" s="3">
-        <v>622080</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1080</v>
-      </c>
-      <c r="G16" s="3">
-        <v>16470</v>
-      </c>
-      <c r="H16" s="3">
-        <v>15228</v>
-      </c>
-      <c r="I16" s="3">
-        <v>20.628</v>
-      </c>
-      <c r="J16" s="3">
-        <v>30</v>
-      </c>
-      <c r="K16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
-        <v>16470</v>
+        <v>9061.636508</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17"/>
       <c r="B17"/>
-      <c r="C17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5">
-        <v>622080</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1080</v>
-      </c>
-      <c r="G17" s="5">
-        <v>16470</v>
-      </c>
-      <c r="H17" s="5">
-        <v>15228</v>
-      </c>
-      <c r="I17" s="5">
-        <v>20.628</v>
-      </c>
-      <c r="J17" s="5">
-        <v>30</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="5">
+      <c r="C17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7">
+        <v>402112</v>
+      </c>
+      <c r="F17" s="7">
+        <v>700</v>
+      </c>
+      <c r="G17" s="7">
+        <v>9061.636508</v>
+      </c>
+      <c r="H17" s="7">
+        <v>8213.12</v>
+      </c>
+      <c r="I17" s="7">
+        <v>13.316</v>
+      </c>
+      <c r="J17" s="7">
+        <v>18</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="7">
         <v>0</v>
       </c>
-      <c r="M17" s="5">
-        <v>16470</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18">
-        <v>120500002133</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18">
-        <v>88726</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18" s="3">
-        <v>352512</v>
-      </c>
-      <c r="F18" s="3">
-        <v>612</v>
-      </c>
-      <c r="G18" s="3">
-        <v>9333</v>
-      </c>
-      <c r="H18" s="3">
-        <v>8629.2</v>
-      </c>
-      <c r="I18" s="3">
-        <v>11.6892</v>
-      </c>
-      <c r="J18" s="3">
-        <v>17</v>
-      </c>
-      <c r="K18" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>9333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5">
-        <v>352512</v>
-      </c>
-      <c r="F19" s="5">
-        <v>612</v>
-      </c>
-      <c r="G19" s="5">
-        <v>9333</v>
-      </c>
-      <c r="H19" s="5">
-        <v>8629.2</v>
-      </c>
-      <c r="I19" s="5">
-        <v>11.689</v>
-      </c>
-      <c r="J19" s="5">
-        <v>17</v>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="5">
-        <v>0</v>
-      </c>
-      <c r="M19" s="5">
-        <v>9333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7">
-        <v>2218752</v>
-      </c>
-      <c r="F21" s="7">
-        <v>3852</v>
-      </c>
-      <c r="G21" s="7">
-        <v>58743</v>
-      </c>
-      <c r="H21" s="7">
-        <v>54313.2</v>
-      </c>
-      <c r="I21" s="7">
-        <v>73.573</v>
-      </c>
-      <c r="J21" s="7">
-        <v>107</v>
-      </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="7">
-        <v>0</v>
-      </c>
-      <c r="M21" s="7">
-        <v>58743</v>
+      <c r="M17" s="7">
+        <v>9061.636508</v>
       </c>
     </row>
   </sheetData>
@@ -1071,16 +945,10 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forms/shipping_plan/breakdown_container_print_xls.xlsx
+++ b/forms/shipping_plan/breakdown_container_print_xls.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>BREAKDOWN CONTAINER</t>
   </si>
@@ -29,9 +29,6 @@
     <t>BOOKING NO. :</t>
   </si>
   <si>
-    <t>TBA</t>
-  </si>
-  <si>
     <t>FROM :</t>
   </si>
   <si>
@@ -41,19 +38,16 @@
     <t>INVOICE NO. :</t>
   </si>
   <si>
-    <t>631/FILR/20</t>
-  </si>
-  <si>
     <t>RE :</t>
   </si>
   <si>
-    <t>CONTAINER BREAK DOWN DESTINED TO LOS ANGELES, USA</t>
+    <t xml:space="preserve">CONTAINER BREAK DOWN DESTINED TO </t>
   </si>
   <si>
     <t>PPBE NO. :</t>
   </si>
   <si>
-    <t>210/H/20</t>
+    <t>006/H/21</t>
   </si>
   <si>
     <t>VESSEL :</t>
@@ -65,15 +59,9 @@
     <t>DATE :</t>
   </si>
   <si>
-    <t>2020-11-18</t>
-  </si>
-  <si>
     <t>ETD :</t>
   </si>
   <si>
-    <t>2020-11-23</t>
-  </si>
-  <si>
     <t>FI PO NO.</t>
   </si>
   <si>
@@ -113,17 +101,14 @@
     <t>VGM (KGS)</t>
   </si>
   <si>
-    <t>AMAZON BASICS US LR6 (4SX2)</t>
+    <t>AMAZON BASICS JP LR6 (4SX5)</t>
   </si>
   <si>
     <t>A
 (20 FEET)</t>
   </si>
   <si>
-    <t>AMAZON BASICS US LR03 (4SX5)</t>
-  </si>
-  <si>
-    <t>AMAZON BASICS US LR6 (4SX5)</t>
+    <t>AMAZON BASICS JP LR6 (4SX12)</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -565,10 +550,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -622,64 +607,58 @@
         <v>3</v>
       </c>
       <c r="I5"/>
-      <c r="J5" t="s">
-        <v>4</v>
-      </c>
+      <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6"/>
-      <c r="J6" t="s">
-        <v>8</v>
-      </c>
+      <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
     </row>
     <row r="7" spans="1:13">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I7"/>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
     </row>
     <row r="8" spans="1:13">
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -688,242 +667,201 @@
     </row>
     <row r="9" spans="1:13">
       <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I9"/>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
+      <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>120500002245</v>
+        <v>120500002360</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12">
-        <v>88188</v>
+        <v>88914</v>
       </c>
       <c r="D12"/>
       <c r="E12" s="3">
-        <v>25792</v>
+        <v>112320</v>
       </c>
       <c r="F12" s="3">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="G12" s="3">
-        <v>746.614286</v>
+        <v>3155.8</v>
       </c>
       <c r="H12" s="3">
-        <v>670.592</v>
+        <v>2852.928</v>
       </c>
       <c r="I12" s="3">
-        <v>1.151828</v>
+        <v>5.373744</v>
       </c>
       <c r="J12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>746.614286</v>
+        <v>3155.8</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>120500002245</v>
+        <v>120500002360</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>88849</v>
+        <v>88864</v>
       </c>
       <c r="D13"/>
       <c r="E13" s="3">
-        <v>160000</v>
+        <v>152064</v>
       </c>
       <c r="F13" s="3">
-        <v>160</v>
+        <v>264</v>
       </c>
       <c r="G13" s="3">
-        <v>2251.111111</v>
+        <v>4003</v>
       </c>
       <c r="H13" s="3">
-        <v>2048</v>
+        <v>3725.568</v>
       </c>
       <c r="I13" s="3">
-        <v>3.706666</v>
+        <v>4.675137</v>
       </c>
       <c r="J13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K13"/>
       <c r="L13" s="3">
         <v>0</v>
       </c>
       <c r="M13" s="3">
-        <v>2251.111111</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14">
-        <v>120500002245</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14">
-        <v>88918</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14" s="3">
-        <v>216320</v>
-      </c>
-      <c r="F14" s="3">
-        <v>416</v>
-      </c>
-      <c r="G14" s="3">
-        <v>6063.911111</v>
-      </c>
-      <c r="H14" s="3">
-        <v>5494.528</v>
-      </c>
-      <c r="I14" s="3">
-        <v>8.4567</v>
-      </c>
-      <c r="J14" s="3">
-        <v>12</v>
-      </c>
-      <c r="K14"/>
-      <c r="L14" s="3">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5">
+        <v>264384</v>
+      </c>
+      <c r="F14" s="5">
+        <v>480</v>
+      </c>
+      <c r="G14" s="5">
+        <v>7158.8</v>
+      </c>
+      <c r="H14" s="5">
+        <v>6578.496</v>
+      </c>
+      <c r="I14" s="5">
+        <v>10.049</v>
+      </c>
+      <c r="J14" s="5">
+        <v>10</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="5">
         <v>0</v>
       </c>
-      <c r="M14" s="3">
-        <v>6063.911111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5">
-        <v>402112</v>
-      </c>
-      <c r="F15" s="5">
-        <v>700</v>
-      </c>
-      <c r="G15" s="5">
-        <v>9061.636508</v>
-      </c>
-      <c r="H15" s="5">
-        <v>8213.12</v>
-      </c>
-      <c r="I15" s="5">
-        <v>13.316</v>
-      </c>
-      <c r="J15" s="5">
-        <v>18</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="5">
+      <c r="M14" s="5">
+        <v>7158.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7">
+        <v>264384</v>
+      </c>
+      <c r="F16" s="7">
+        <v>480</v>
+      </c>
+      <c r="G16" s="7">
+        <v>7158.8</v>
+      </c>
+      <c r="H16" s="7">
+        <v>6578.496</v>
+      </c>
+      <c r="I16" s="7">
+        <v>10.049</v>
+      </c>
+      <c r="J16" s="7">
+        <v>10</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="7">
         <v>0</v>
       </c>
-      <c r="M15" s="5">
-        <v>9061.636508</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7">
-        <v>402112</v>
-      </c>
-      <c r="F17" s="7">
-        <v>700</v>
-      </c>
-      <c r="G17" s="7">
-        <v>9061.636508</v>
-      </c>
-      <c r="H17" s="7">
-        <v>8213.12</v>
-      </c>
-      <c r="I17" s="7">
-        <v>13.316</v>
-      </c>
-      <c r="J17" s="7">
-        <v>18</v>
-      </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="7">
-        <v>0</v>
-      </c>
-      <c r="M17" s="7">
-        <v>9061.636508</v>
+      <c r="M16" s="7">
+        <v>7158.8</v>
       </c>
     </row>
   </sheetData>
@@ -945,10 +883,10 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
